--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ting/WORK/EarlyChildhoodEducation/WEP/STEAM/Working docs/PEEP/PEEP_EDUCATOR/COLOR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ting/WORK/EarlyChildhoodEducation/WEP/STEAM/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="材料清单" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="197">
   <si>
     <t>材料</t>
     <rPh sb="0" eb="1">
@@ -1468,13 +1468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印</t>
-    <rPh sb="0" eb="1">
-      <t>da yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装油画棒的盒子</t>
     <rPh sb="0" eb="1">
       <t>zhuang</t>
@@ -1593,56 +1586,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需手写，剪裁</t>
-    <rPh sb="0" eb="1">
-      <t>xu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou xie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需手写，剪裁</t>
-    <rPh sb="0" eb="1">
-      <t>xu shou xie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian cai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄叶琴</t>
-    <rPh sb="0" eb="1">
-      <t>huang ye qin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已买</t>
     <rPh sb="0" eb="1">
       <t>yi mai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺基亚打印</t>
-    <rPh sb="0" eb="1">
-      <t>nuo ji ya da yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺基亚打印</t>
-    <rPh sb="0" eb="1">
-      <t>nuo ji ya</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da yin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1809,6 +1755,95 @@
   </si>
   <si>
     <t>KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［绘画1.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［绘画2.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印［绘画3.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通A4纸</t>
+    <rPh sb="0" eb="1">
+      <t>pu tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白板纸</t>
+    <rPh sb="0" eb="1">
+      <t>bai ban zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需手写，剪裁，参考［空白记录卡片1.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>xu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian cai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kong bai ji lu ka pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需手写，剪裁，参考［空白记录卡片2.jpeg］</t>
+    <rPh sb="0" eb="1">
+      <t>xu shou xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian cai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kong bai ji lu ka pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩平</t>
+    <rPh sb="0" eb="1">
+      <t>wu en p</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,28 +2180,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,24 +2206,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2259,9 +2261,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2283,13 +2282,49 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,7 +2611,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
@@ -2589,14 +2624,14 @@
       <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2606,24 +2641,24 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
@@ -2631,8 +2666,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
@@ -2646,8 +2681,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
@@ -2655,8 +2690,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
@@ -2664,9 +2699,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="71" t="s">
-        <v>187</v>
+      <c r="A7" s="62"/>
+      <c r="B7" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -2676,76 +2711,76 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="71" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="59" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1">
@@ -2756,20 +2791,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1">
@@ -2777,8 +2812,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1">
@@ -2786,20 +2821,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="71" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="59" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1">
@@ -2810,8 +2845,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="71" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="59" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
@@ -2819,47 +2854,47 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="71" t="s">
-        <v>159</v>
+      <c r="A20" s="62"/>
+      <c r="B20" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>188</v>
+      <c r="B24" s="59" t="s">
+        <v>182</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -2872,8 +2907,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1">
@@ -2884,8 +2919,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="71" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="59" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1">
@@ -2893,8 +2928,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="1">
@@ -2902,10 +2937,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2913,8 +2948,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2922,8 +2957,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="71" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2931,7 +2966,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="59" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="1">
@@ -2974,40 +3009,40 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3017,26 +3052,26 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3063,74 +3098,74 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3146,42 +3181,42 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3194,121 +3229,121 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="30"/>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="66"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="66"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="66"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -3319,147 +3354,147 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="64" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="64"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="34"/>
+      <c r="D54" s="64"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="64"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="64"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="64"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="64"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3469,18 +3504,18 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="20" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3511,7 +3546,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
@@ -3521,376 +3556,376 @@
   <sheetData>
     <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="36">
+    <row r="4" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="2:8" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="36">
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="2:8" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="36">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="37">
+      <c r="E6" s="42"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="68">
         <v>4</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-    </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="56" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="56" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="56" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="36">
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
         <v>5</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="36">
+      <c r="E11" s="42"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="26">
         <v>6</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="26">
         <v>7</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="36">
+      <c r="E13" s="42"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="26">
         <v>8</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="C14" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="36">
+      <c r="E14" s="46"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="26">
         <v>9</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="36">
+      <c r="E15" s="42"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="26">
         <v>10</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-    </row>
-    <row r="17" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-    </row>
-    <row r="19" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-    </row>
-    <row r="21" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-    </row>
-    <row r="23" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="2:8" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="26"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="26"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="26"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+    </row>
+    <row r="20" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="26"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="26"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+    </row>
+    <row r="22" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="26"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="26"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="2:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="26"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="38"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="43"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="43"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="43"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="43"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="43"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="43"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="43"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="70" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3936,14 +3971,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3965,7 +4000,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="70" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
@@ -3979,7 +4014,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="70"/>
       <c r="C5" t="s">
         <v>49</v>
       </c>
@@ -3988,10 +4023,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="70" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
@@ -4002,8 +4037,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="70"/>
       <c r="C7" t="s">
         <v>73</v>
       </c>
@@ -4033,20 +4068,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4061,80 +4096,80 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4174,50 +4209,50 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4250,17 +4285,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="59" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -4275,11 +4310,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>162</v>
+      <c r="A2" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -4290,14 +4325,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="71" t="s">
-        <v>162</v>
+      <c r="A3" s="72"/>
+      <c r="B3" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4308,344 +4340,374 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="75" t="s">
         <v>153</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" t="s">
-        <v>170</v>
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="71" t="s">
-        <v>179</v>
-      </c>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="72" t="s">
-        <v>181</v>
-      </c>
+      <c r="A6" s="72"/>
+      <c r="B6" s="75"/>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="59" t="s">
+        <v>173</v>
+      </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="75" t="s">
+        <v>175</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="75"/>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="72"/>
+      <c r="B11" s="75"/>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="72"/>
+      <c r="B12" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="E12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="72"/>
+      <c r="B13" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
       <c r="E13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="71" t="s">
-        <v>160</v>
+      <c r="B14" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="71" t="s">
-        <v>156</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="71" t="s">
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="71" t="s">
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="59" t="s">
         <v>117</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="71" t="s">
-        <v>158</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="71" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="59" t="s">
         <v>124</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="71" t="s">
-        <v>35</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="71" t="s">
-        <v>130</v>
+      <c r="B25" s="59" t="s">
+        <v>128</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="71" t="s">
-        <v>131</v>
+      <c r="B26" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="71" t="s">
-        <v>10</v>
+      <c r="B27" s="59" t="s">
+        <v>130</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="75" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B32" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C32" s="61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
-      <c r="B31" s="73" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="74"/>
+      <c r="B33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C33" s="61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="73" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="74"/>
+      <c r="B34" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C34" s="61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="73" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="61">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="61">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="74">
-        <v>28.71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="74">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="74">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="74">
+      <c r="D43" s="61">
         <v>62.13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="4">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
@@ -2171,7 +2171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2325,6 +2325,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4288,7 +4291,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4310,7 +4313,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="76" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -4327,7 +4330,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="59" t="s">
         <v>161</v>
       </c>
@@ -4342,7 +4345,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="75" t="s">
         <v>153</v>
       </c>
@@ -4357,7 +4360,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="75"/>
       <c r="C5">
         <v>1</v>
@@ -4370,7 +4373,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="75"/>
       <c r="C6">
         <v>1</v>
@@ -4383,7 +4386,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="59" t="s">
         <v>173</v>
       </c>
@@ -4395,7 +4398,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="75" t="s">
         <v>175</v>
       </c>
@@ -4407,7 +4410,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="75"/>
       <c r="C9">
         <v>1</v>
@@ -4417,7 +4420,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="75"/>
       <c r="C10">
         <v>1</v>
@@ -4427,7 +4430,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="75"/>
       <c r="C11">
         <v>1</v>
@@ -4437,7 +4440,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="59" t="s">
         <v>153</v>
       </c>
@@ -4452,7 +4455,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="59" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4470,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="59" t="s">
         <v>151</v>
       </c>
@@ -4485,7 +4488,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="59" t="s">
         <v>151</v>
       </c>
@@ -4503,7 +4506,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="59" t="s">
         <v>159</v>
       </c>
@@ -4707,7 +4710,7 @@
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/材料清单.xlsx
@@ -4291,7 +4291,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4320,7 +4320,7 @@
         <v>161</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>149</v>
@@ -4475,7 +4475,7 @@
         <v>151</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>162</v>
